--- a/src/Excel/entregable2/ProcesoAbonoMasivoCTS.xlsx
+++ b/src/Excel/entregable2/ProcesoAbonoMasivoCTS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648B1C23-D4A5-459F-907D-A81FA1469F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F987CF94-7311-4904-9ED0-3E6C74E94C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>contraseña</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>cuentaCTS</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>SCISNEROSSPAS</t>
+  </si>
+  <si>
+    <t>1234566</t>
+  </si>
+  <si>
+    <t>ABONOCTS2023020101.txt</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +66,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +105,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,12 +394,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1001566063</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/Excel/entregable2/ProcesoAbonoMasivoCTS.xlsx
+++ b/src/Excel/entregable2/ProcesoAbonoMasivoCTS.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F987CF94-7311-4904-9ED0-3E6C74E94C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CDDB16-E6DC-415E-A111-AD5C3208AAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProcesoAbonoMasivoCTS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>usuario</t>
   </si>
@@ -52,12 +52,49 @@
   </si>
   <si>
     <t>ABONOCTS2023020101.txt</t>
+  </si>
+  <si>
+    <t>1001561697</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>19 abr. 2023, 11:50:58</t>
+  </si>
+  <si>
+    <t>19 abr. 2023, 14:47:28</t>
+  </si>
+  <si>
+    <t>19 abr. 2023, 14:51:42</t>
+  </si>
+  <si>
+    <t>19 abr. 2023, 15:03:38</t>
+  </si>
+  <si>
+    <t>19 abr. 2023, 15:06:16</t>
+  </si>
+  <si>
+    <t>19 abr. 2023, 16:29:07</t>
+  </si>
+  <si>
+    <t>19 abr. 2023, 16:31:13</t>
+  </si>
+  <si>
+    <t>19 abr. 2023, 16:31:58</t>
+  </si>
+  <si>
+    <t>19 abr. 2023, 16:36:30</t>
+  </si>
+  <si>
+    <t>19 abr. 2023, 16:39:02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,15 +434,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -435,11 +472,17 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>1001566063</v>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ProcesoAbonoMasivoCTS.xlsx
+++ b/src/Excel/entregable2/ProcesoAbonoMasivoCTS.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CDDB16-E6DC-415E-A111-AD5C3208AAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A009FBF8-4D78-45F2-8883-39884D478B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>usuario</t>
   </si>
@@ -45,56 +45,28 @@
     <t>txt</t>
   </si>
   <si>
-    <t>SCISNEROSSPAS</t>
-  </si>
-  <si>
     <t>1234566</t>
   </si>
   <si>
-    <t>ABONOCTS2023020101.txt</t>
-  </si>
-  <si>
     <t>1001561697</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>19 abr. 2023, 11:50:58</t>
-  </si>
-  <si>
-    <t>19 abr. 2023, 14:47:28</t>
-  </si>
-  <si>
-    <t>19 abr. 2023, 14:51:42</t>
-  </si>
-  <si>
-    <t>19 abr. 2023, 15:03:38</t>
-  </si>
-  <si>
-    <t>19 abr. 2023, 15:06:16</t>
-  </si>
-  <si>
-    <t>19 abr. 2023, 16:29:07</t>
-  </si>
-  <si>
-    <t>19 abr. 2023, 16:31:13</t>
-  </si>
-  <si>
-    <t>19 abr. 2023, 16:31:58</t>
-  </si>
-  <si>
-    <t>19 abr. 2023, 16:36:30</t>
-  </si>
-  <si>
-    <t>19 abr. 2023, 16:39:02</t>
+    <t>ASARMIENTOA1</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 01:30:36</t>
+  </si>
+  <si>
+    <t>System.getProperty("user.dir") + "/src/Excel/entregable2/ABONOCTS2023020101.txt";</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,15 +406,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="73.26953125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -467,22 +439,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ProcesoAbonoMasivoCTS.xlsx
+++ b/src/Excel/entregable2/ProcesoAbonoMasivoCTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A009FBF8-4D78-45F2-8883-39884D478B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881F6C21-1A8B-4C89-B665-27899E0EC86A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProcesoAbonoMasivoCTS" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>3 may. 2023, 01:30:36</t>
   </si>
   <si>
-    <t>System.getProperty("user.dir") + "/src/Excel/entregable2/ABONOCTS2023020101.txt";</t>
+    <t>ABONOCTS2023020101.txt</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,7 +414,8 @@
     <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="73.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">

--- a/src/Excel/entregable2/ProcesoAbonoMasivoCTS.xlsx
+++ b/src/Excel/entregable2/ProcesoAbonoMasivoCTS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>usuario</t>
   </si>
@@ -61,12 +61,16 @@
   </si>
   <si>
     <t>ABONOCTS2023020101.txt</t>
+  </si>
+  <si>
+    <t>7 ago. 2023, 13:11:50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,11 +415,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -455,7 +459,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ProcesoAbonoMasivoCTS.xlsx
+++ b/src/Excel/entregable2/ProcesoAbonoMasivoCTS.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881F6C21-1A8B-4C89-B665-27899E0EC86A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F45616-CDB4-4AAA-A141-20E52819272C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProcesoAbonoMasivoCTS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>usuario</t>
   </si>
@@ -48,29 +48,25 @@
     <t>1234566</t>
   </si>
   <si>
-    <t>1001561697</t>
-  </si>
-  <si>
     <t>ASARMIENTOA1</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>3 may. 2023, 01:30:36</t>
-  </si>
-  <si>
     <t>ABONOCTS2023020101.txt</t>
   </si>
   <si>
-    <t>7 ago. 2023, 13:11:50</t>
+    <t>9 ago. 2023, 17:02:37</t>
+  </si>
+  <si>
+    <t>1001706558</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,16 +406,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.90625" collapsed="true"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -444,22 +440,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ProcesoAbonoMasivoCTS.xlsx
+++ b/src/Excel/entregable2/ProcesoAbonoMasivoCTS.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F45616-CDB4-4AAA-A141-20E52819272C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642DB63B-A0E1-4CAC-95AD-2B21489E9786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>usuario</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>cuentaCTS</t>
-  </si>
-  <si>
     <t>txt</t>
   </si>
   <si>
@@ -60,13 +57,14 @@
     <t>9 ago. 2023, 17:02:37</t>
   </si>
   <si>
-    <t>1001706558</t>
+    <t>10 ago. 2023, 14:34:58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,22 +401,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.90625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,33 +425,27 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
